--- a/sources/Outiles/MobMap/MobMars.xlsx
+++ b/sources/Outiles/MobMap/MobMars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\code\GitHub\Jeu-Dzarian-Miniquoinquoin\Outiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\code\GitHub\SpaceShooter\sources\Outiles\MobMap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C01D1D94-6CC8-46B8-AE05-33D4FF47B4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6854CC3-4E10-42C5-AD3A-422DEC08584C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57120" yWindow="3780" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60540" yWindow="4380" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="names" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>name_wave_0</t>
   </si>
@@ -64,21 +64,9 @@
     <t>number_wave_6</t>
   </si>
   <si>
-    <t>Amalgam_Sprite</t>
-  </si>
-  <si>
-    <t>Adept_Sprite</t>
-  </si>
-  <si>
     <t>type_wave_0</t>
   </si>
   <si>
-    <t>STRENGTH</t>
-  </si>
-  <si>
-    <t>COMMON</t>
-  </si>
-  <si>
     <t>type_wave_1</t>
   </si>
   <si>
@@ -97,19 +85,16 @@
     <t>type_wave_6</t>
   </si>
   <si>
-    <t>ArchMage_Sprite</t>
-  </si>
-  <si>
-    <t>HEAL</t>
-  </si>
-  <si>
     <t>Wave</t>
   </si>
   <si>
-    <t>Ammonite_Sprite</t>
-  </si>
-  <si>
-    <t>SHOOTER</t>
+    <t>Dolphin_Sprite</t>
+  </si>
+  <si>
+    <t>BOSS_COMMON</t>
+  </si>
+  <si>
+    <t>Manmo_Sprite</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1056,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1110,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1119,7 +1104,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -1128,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>6</v>
@@ -1137,7 +1122,7 @@
         <v>7</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>8</v>
@@ -1146,7 +1131,7 @@
         <v>9</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>10</v>
@@ -1155,7 +1140,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>12</v>
@@ -1164,158 +1149,74 @@
         <v>13</v>
       </c>
       <c r="V1" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="6">
-        <v>25</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="6">
-        <v>5</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="6">
-        <v>55</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="6">
-        <v>45</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="6">
-        <v>5</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="10"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7">
-        <v>13</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="7">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="7">
-        <v>23</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="7">
-        <v>23</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="R3" s="7">
-        <v>3</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="7">
-        <v>3</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="11"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="7">
-        <v>3</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7"/>
       <c r="J4" s="11"/>
@@ -1325,35 +1226,17 @@
       <c r="N4" s="3"/>
       <c r="O4" s="7"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="7">
-        <v>20</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="7">
-        <v>100</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="11"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="3"/>
       <c r="F5" s="7"/>
       <c r="G5" s="11"/>
